--- a/quizzes/17c. Tiêu chuẩn tác phong GDV.xlsx
+++ b/quizzes/17c. Tiêu chuẩn tác phong GDV.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uybinh/Projects/quiz-nghiep-vu/quizzes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E14A395-A179-6B41-AB57-E2F6B643D3B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A030AD77-C019-C34F-8113-8C2739AA888F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="32000" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>ĐÁP ÁN ĐÚNG</t>
-  </si>
-  <si>
-    <t>TRÍCH DẪN NGUỒN CÂU HỎI</t>
   </si>
   <si>
     <t>GHI CHÚ</t>
@@ -433,6 +430,9 @@
   </si>
   <si>
     <t>ĐÁP ÁN 4</t>
+  </si>
+  <si>
+    <t>TRÍCH DẪN NGUỒN</t>
   </si>
 </sst>
 </file>
@@ -959,7 +959,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -984,30 +984,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>3</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -1024,25 +1024,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="12">
         <v>4</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="11"/>
     </row>
@@ -1051,25 +1051,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="E4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="12">
         <v>2</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="5"/>
     </row>
@@ -1078,25 +1078,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="G5" s="12">
         <v>4</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -1105,25 +1105,25 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>33</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="12">
         <v>2</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="5"/>
     </row>
@@ -1132,25 +1132,25 @@
         <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="D7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="E7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="G7" s="12">
         <v>2</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="5"/>
     </row>
@@ -1159,13 +1159,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="5"/>
     </row>
@@ -1182,25 +1182,25 @@
         <v>7</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="D9" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>43</v>
-      </c>
       <c r="F9" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="12">
         <v>4</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I9" s="5"/>
     </row>
@@ -1209,25 +1209,25 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>48</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>49</v>
       </c>
       <c r="G10" s="12">
         <v>3</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="5"/>
     </row>
@@ -1236,25 +1236,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="D11" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="G11" s="12">
         <v>2</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1263,23 +1263,23 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="D12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="E12" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>60</v>
       </c>
       <c r="F12" s="12"/>
       <c r="G12" s="12">
         <v>1</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I12" s="5"/>
     </row>
@@ -1288,25 +1288,25 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="F13" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="12">
         <v>2</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I13" s="6"/>
     </row>
@@ -1315,25 +1315,25 @@
         <v>12</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G14" s="3">
         <v>4</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I14" s="5"/>
     </row>
@@ -1342,25 +1342,25 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="D15" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="E15" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="F15" s="12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="12">
         <v>4</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I15" s="5"/>
     </row>
@@ -1369,25 +1369,25 @@
         <v>14</v>
       </c>
       <c r="B16" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="G16" s="3">
         <v>2</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I16" s="5"/>
     </row>
@@ -1396,25 +1396,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="G17" s="3">
         <v>4</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I17" s="5"/>
     </row>
@@ -1423,25 +1423,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="G18" s="3">
         <v>4</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I18" s="5"/>
     </row>
@@ -1450,25 +1450,25 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I19" s="5"/>
     </row>
@@ -1477,25 +1477,25 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="G20" s="3">
         <v>3</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I20" s="5"/>
     </row>
@@ -1504,23 +1504,23 @@
         <v>19</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="16">
         <v>1</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I21" s="5"/>
     </row>
@@ -1529,25 +1529,25 @@
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="G22" s="16">
         <v>3</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I22" s="5"/>
     </row>
